--- a/Hmwrk.xlsx
+++ b/Hmwrk.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ufkgo\github\geo23\geo23\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ufkgo\github\geo23\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>Программа</t>
   </si>
@@ -42,13 +42,19 @@
   </si>
   <si>
     <t>Время работы программы с матрицей 200/200</t>
+  </si>
+  <si>
+    <t>Метод Гаусса (numpy)</t>
+  </si>
+  <si>
+    <t>11.8 ms</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -65,6 +71,11 @@
       <family val="2"/>
       <charset val="204"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial Unicode MS"/>
     </font>
   </fonts>
   <fills count="2">
@@ -87,12 +98,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -373,15 +387,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -389,7 +403,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -397,12 +411,20 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2">
       <c r="A3" t="s">
         <v>2</v>
       </c>
       <c r="B3" t="s">
         <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/Hmwrk.xlsx
+++ b/Hmwrk.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>Программа</t>
   </si>
@@ -48,6 +48,12 @@
   </si>
   <si>
     <t>11.8 ms</t>
+  </si>
+  <si>
+    <t>9.81 ms</t>
+  </si>
+  <si>
+    <t>Метод Холецкого(numpy)</t>
   </si>
 </sst>
 </file>
@@ -387,10 +393,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -427,6 +433,14 @@
         <v>7</v>
       </c>
     </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
